--- a/tests/integration/out/ai-and-nanotech_aliases.xlsx
+++ b/tests/integration/out/ai-and-nanotech_aliases.xlsx
@@ -25,6 +25,21 @@
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>IBM (CHINA) INVEST COMPANY LTD</t>
+  </si>
+  <si>
+    <t>IBM UK</t>
+  </si>
+  <si>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>国际商业机器公司</t>
+  </si>
+  <si>
     <t>BARENDS RAMI</t>
   </si>
   <si>
@@ -58,21 +73,6 @@
     <t>구글 엘엘씨</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>IBM (CHINA) INVEST COMPANY LTD</t>
-  </si>
-  <si>
-    <t>IBM UK</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
-  </si>
-  <si>
-    <t>国际商业机器公司</t>
-  </si>
-  <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Equal1 Labs Inc</t>
   </si>
   <si>
+    <t>Ibm</t>
+  </si>
+  <si>
     <t>Google Llc</t>
-  </si>
-  <si>
-    <t>Ibm</t>
   </si>
   <si>
     <t>Rigetti &amp; Co Inc</t>
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -593,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
